--- a/ChangesCosts.xlsx
+++ b/ChangesCosts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanl\Documents\SCHOOL\FASE 4\IP1\IP1a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA0DB92-5301-47CF-8B66-3B3D0B9E5E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19769D7-A22A-4C90-AC0B-045116B886D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{405E21A9-8619-4CF5-801B-2D77C5AFE1E1}"/>
   </bookViews>
@@ -370,7 +370,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,12 +383,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
